--- a/shareskill.xlsx
+++ b/shareskill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Renu\Indusconnect\TalentProfileProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20480127-BED1-4922-B7B6-6C58A72B0EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225D9827-5F72-4856-B230-00F5FEA4BD15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B180F70F-C7D1-445A-AC05-89A4214A4F0F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>Test ID</t>
   </si>
@@ -217,6 +217,24 @@
 7.Available days
        a. Start Date   b. End Date
 Check End date is less than start date is not acceptable.</t>
+  </si>
+  <si>
+    <t>TC_009</t>
+  </si>
+  <si>
+    <t>CheckSkillTrade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate Credit </t>
+  </si>
+  <si>
+    <t>Enter numbers in credit from 0 to 10</t>
+  </si>
+  <si>
+    <t>TC_010</t>
+  </si>
+  <si>
+    <t>Enter numbers in credit from 0 to 10 . It shouldn's accept more 10 and negative numbers.</t>
   </si>
 </sst>
 </file>
@@ -581,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5341D88-4A8C-41CA-8172-8F070D9B0F42}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="46.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -740,6 +758,34 @@
         <v>36</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
